--- a/for Hector/Tom/Good Data/SM001RIGHT-Done.xlsx
+++ b/for Hector/Tom/Good Data/SM001RIGHT-Done.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shq153\Desktop\Caltrans\for Hector\Tom\Good Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -563,6 +568,9 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -583,10 +591,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -607,10 +623,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -631,10 +655,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -655,10 +687,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -679,10 +719,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -703,10 +751,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -727,10 +783,76 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -751,10 +873,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="12"/>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -775,10 +905,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="13"/>
+        <c:idx val="15"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -799,10 +937,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="14"/>
+        <c:idx val="16"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -823,10 +969,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="15"/>
+        <c:idx val="17"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -847,10 +1001,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="16"/>
+        <c:idx val="18"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -871,10 +1033,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="17"/>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -895,10 +1065,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="18"/>
+        <c:idx val="20"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -919,13 +1097,23 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="19"/>
+        <c:idx val="21"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-7.4162786317088863E-2"/>
+              <c:y val="-3.0326002135077905E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -943,13 +1131,23 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="20"/>
+        <c:idx val="22"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.8791306787558109E-3"/>
+              <c:y val="-5.8630270794484018E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -967,49 +1165,20 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-7.4162786317088863E-2"/>
-              <c:y val="-3.0326002135077905E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="7.0747394841959771E-2"/>
-              <c:y val="-3.1336868872913905E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1027,6 +1196,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1035,16 +1207,542 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="8.6360613013978474E-2"/>
-              <c:y val="2.8304268659405968E-2"/>
+              <c:x val="9.22155698284855E-2"/>
+              <c:y val="-3.3358602348585766E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.4395653393779232E-3"/>
+              <c:y val="-3.0326002135077908E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.3178088615539753E-2"/>
+              <c:y val="-3.1336868872913835E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.1222000561138446E-2"/>
+              <c:y val="-3.5380335824257592E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="9.7582613575116564E-3"/>
+              <c:y val="-3.5380335824257592E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-9.7582613575116928E-3"/>
+              <c:y val="-3.4369469086421696E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.9762697140410733E-2"/>
+              <c:y val="-3.1336868872913835E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-8.1481482335222649E-2"/>
+              <c:y val="-3.4369469086421627E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.7578177792217956E-2"/>
+              <c:y val="-5.0543336891796506E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.9274784072535077E-2"/>
+              <c:y val="-3.5380335824257557E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.1709913629013996E-2"/>
+              <c:y val="-3.4369469086421696E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.0492348850774517E-2"/>
+              <c:y val="-3.1336868872913835E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.7564870443521046E-2"/>
+              <c:y val="-3.9423802775601272E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.2444001122276892E-2"/>
+              <c:y val="-3.4369469086421627E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.8298957936783907E-2"/>
+              <c:y val="-3.4369469086421627E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.2931914190152478E-2"/>
+              <c:y val="-3.5380335824257557E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1178,6 +1876,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9274784072535077E-2"/>
+                  <c:y val="-3.5380335824257557E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1196,6 +1914,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1270,6 +1994,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1709913629013996E-2"/>
+                  <c:y val="-3.4369469086421696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1288,6 +2032,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1362,6 +2112,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7582613575116928E-3"/>
+                  <c:y val="-3.4369469086421696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1380,6 +2150,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1454,6 +2230,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3178088615539753E-2"/>
+                  <c:y val="-3.1336868872913835E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1472,6 +2268,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1546,6 +2348,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4395653393779232E-3"/>
+                  <c:y val="-3.0326002135077908E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1564,6 +2386,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1638,6 +2466,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1222000561138446E-2"/>
+                  <c:y val="-3.5380335824257592E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1656,6 +2504,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1730,6 +2584,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8298957936783907E-2"/>
+                  <c:y val="-3.4369469086421627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1748,6 +2622,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1822,6 +2702,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7564870443521046E-2"/>
+                  <c:y val="-3.9423802775601272E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1840,6 +2740,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1914,6 +2820,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0492348850774517E-2"/>
+                  <c:y val="-3.1336868872913835E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -1932,6 +2858,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2006,6 +2938,26 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1481482335222649E-2"/>
+                  <c:y val="-3.4369469086421627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -2024,6 +2976,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2112,6 +3070,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2131,6 +3094,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2205,559 +3173,12 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BD$8:$BD$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="8">
-                  <c:v>7.423</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BJ$1:$BJ$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L03 - NA - NA - NA - NA - NA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BJ$8:$BJ$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2370000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BP$1:$BP$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - Digouts - 04-2R250 - Beg PM:   41.337 - End PM:   42.014 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BP$8:$BP$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="7">
-                  <c:v>0.67700000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BU$1:$BU$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-10663 - Beg PM:   31.500 - End PM:   33.000 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BU$8:$BU$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BY$1:$BY$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-14508 - Beg PM:   31.300 - End PM:   34.800 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BY$8:$BY$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$CC$1:$CC$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-19238 - Beg PM:   35.360 - End PM:   36.400 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$CC$8:$CC$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="5">
-                  <c:v>1.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$CG$1:$CG$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-2R080 - Beg PM:   14.073 - End PM:   19.000 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0747394841959771E-2"/>
-                  <c:y val="-3.1336868872913905E-2"/>
+                  <c:x val="9.7582613575116564E-3"/>
+                  <c:y val="-3.5380335824257592E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2766,6 +3187,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2785,6 +3211,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2832,27 +3264,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$CG$8:$CG$20</c:f>
+              <c:f>Sheet2!$BD$8:$BD$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="6">
-                  <c:v>4.9269999999999996</c:v>
+                <c:pt idx="8">
+                  <c:v>7.423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
+          <c:idx val="13"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$CM$1:$CM$7</c:f>
+              <c:f>Sheet2!$BJ$1:$BJ$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L05 - NA - NA - NA - NA - NA</c:v>
+                  <c:v> L03 - NA - NA - NA - NA - NA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2907,27 +3339,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$CM$8:$CM$20</c:f>
+              <c:f>Sheet2!$BJ$8:$BJ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.36</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
+          <c:idx val="14"/>
+          <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$CS$1:$CS$7</c:f>
+              <c:f>Sheet2!$BP$1:$BP$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L06 - HMA Medium Overlay - 04-20980 - Beg PM:   19.000 - End PM:   21.600 - Rehab</c:v>
+                  <c:v> L04 - Digouts - 04-2R250 - Beg PM:   41.337 - End PM:   42.014 - HM Corrective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2935,11 +3379,11 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.6360613013978474E-2"/>
-                  <c:y val="2.8304268659405968E-2"/>
+                  <c:x val="2.9762697140410733E-2"/>
+                  <c:y val="-3.1336868872913835E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2948,6 +3392,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2967,6 +3416,675 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BP$8:$BP$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="7">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BU$1:$BU$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-10663 - Beg PM:   31.500 - End PM:   33.000 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2931914190152478E-2"/>
+                  <c:y val="-3.5380335824257557E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BU$8:$BU$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BY$1:$BY$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-14508 - Beg PM:   31.300 - End PM:   34.800 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2444001122276892E-2"/>
+                  <c:y val="-3.4369469086421627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BY$8:$BY$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$CC$1:$CC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-19238 - Beg PM:   35.360 - End PM:   36.400 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7578177792217956E-2"/>
+                  <c:y val="-5.0543336891796506E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$CC$8:$CC$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="5">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$CG$1:$CG$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-2R080 - Beg PM:   14.073 - End PM:   19.000 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8791306787558109E-3"/>
+                  <c:y val="-5.8630270794484018E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$CG$8:$CG$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>4.9269999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$CM$1:$CM$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L05 - NA - NA - NA - NA - NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$CM$8:$CM$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$CS$1:$CS$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L06 - HMA Medium Overlay - 04-20980 - Beg PM:   19.000 - End PM:   21.600 - Rehab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.22155698284855E-2"/>
+                  <c:y val="-3.3358602348585766E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3035,20 +4153,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="534669312"/>
-        <c:axId val="499046016"/>
+        <c:axId val="176004432"/>
+        <c:axId val="176008912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="534669312"/>
+        <c:axId val="176004432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499046016"/>
+        <c:crossAx val="176008912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3056,9 +4175,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499046016"/>
+        <c:axId val="176008912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3067,16 +4187,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534669312"/>
+        <c:crossAx val="176004432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3092,7 +4207,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -4194,7 +5308,7 @@
   <dataFields count="1">
     <dataField name="Sum of Length" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="25">
+  <chartFormats count="40">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4857,6 +5971,456 @@
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5126,7 +6690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5136,7 +6700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
